--- a/Excel/LeoWallet/Phrases/LeoWallets.xlsx
+++ b/Excel/LeoWallet/Phrases/LeoWallets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhaye\IdeaProjects\AirdropAutomation\Excel\LeoWallet\Phrases\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Phrase</t>
   </si>
@@ -37,12 +37,601 @@
   </si>
   <si>
     <t>Private Key</t>
+  </si>
+  <si>
+    <t>reason head tool gown top awkward soda gentle device point ladder inspire</t>
+  </si>
+  <si>
+    <t>aleo16ys39cfuxgpahrsy87478q4g3g39ay35lqvsgsmyt3asp59u4uyqydc3xv</t>
+  </si>
+  <si>
+    <t>AViewKey1hGwhadHEYUEX9VLykWesQkogB8SmEEqb776p8cF428p8</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpDm14pt4SkuKK8V2S3C3zD4HpnoSTtuds8EprRr1UYR4w</t>
+  </si>
+  <si>
+    <t>ranch twin gun second toe oak custom mixed material circle solve upper</t>
+  </si>
+  <si>
+    <t>aleo1996kfltex8ajzkqcns2h4lwasl4df00dcwyp2awezz055m7weupq2e9p5p</t>
+  </si>
+  <si>
+    <t>AViewKey1uLh5GwEXgWJYSgKPmfe7EP1nzRSH8z883E6rz9kPVSQf</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpJzukW4BGWHdoJ1vSJauQgiYxavtDG4Yg3yHaBh22qktz</t>
+  </si>
+  <si>
+    <t>super tail rebuild satoshi wolf diesel misery laundry rescue health slab camera</t>
+  </si>
+  <si>
+    <t>aleo1km2v86zs86ftc0nvjnz4gk7aldmqcrefark4x5mhdk3gehu57cxqe9d45m</t>
+  </si>
+  <si>
+    <t>AViewKey1f94wEE3zhE73Msi1m6iJYmDxwiURQf2kz1Frwagd9W8z</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp3X8MmazJaUqGeTgqTbvTqyTxCeixUZ6KhdqGt2up39dy</t>
+  </si>
+  <si>
+    <t>gun fashion judge gain warfare pull divert foil beyond melody cute thought</t>
+  </si>
+  <si>
+    <t>aleo14kuwrjpw8jgw2jz6ctryv48zvjhwevl2mfu7f4a4pxwgj5s3pyqsnsuk7q</t>
+  </si>
+  <si>
+    <t>AViewKey1hDK31aN7nereQWQUS4o8856XCcippDYp8MdFq3fnq3d5</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpBgz7emNWyuLViFG69FTJuRkw6RFuiT3QC6gjUoZUAzuY</t>
+  </si>
+  <si>
+    <t>illness bicycle deal edge minor until devote wisdom kid scale rug bone</t>
+  </si>
+  <si>
+    <t>aleo1qv3dhdv69vpaswnuw63dxx2s52w52d5g2lyxrunz2cl8ue6cyqgsr4p2al</t>
+  </si>
+  <si>
+    <t>AViewKey1pUYVrjKpGYmrHiW4ZV84HA47ggFpWoTXvfNUFFSkFLnc</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpCwwMFwkyu4dRznE1zKkH1JWgLRR7WiYQ7gdNHrfCTrBT</t>
+  </si>
+  <si>
+    <t>spin since cushion taste fix index saddle yard major soul exist auto</t>
+  </si>
+  <si>
+    <t>aleo1va9s2a0dt5k3a5wszfj399rynkat30t438t3j7pedq75gz2gysrqzzufd3</t>
+  </si>
+  <si>
+    <t>AViewKey1pwJEpSHwae7Zg3A9rpV21dn2qWTKacxvUCqFW9jo9UwS</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpFR4HSysvGezLMvtTkSzVQpTrRxK1uxCc4zbexaxQpB8g</t>
+  </si>
+  <si>
+    <t>high burger stock right solid limb allow slogan humor guess nothing unable</t>
+  </si>
+  <si>
+    <t>aleo1cj96xal90m5c4srykd73d3myhjjr02pt8wxdplc7swuu7ypdjsxs4vh48s</t>
+  </si>
+  <si>
+    <t>AViewKey1fGmM7E7naK1oqEdU415aN91Xk22fhuoQKR8ThjGaGZhk</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp9AmhHzLJ18yajgojJ9KG4w7bsdcXsWk9jxxfeX2N1Ggd</t>
+  </si>
+  <si>
+    <t>shuffle liberty result logic lock must sorry appear gold edge faint woman</t>
+  </si>
+  <si>
+    <t>aleo19a9g4rj2xqfpzhy0pjzhczdl32sv80uc96mjy5qwrc0lsvdmfczs98wpvc</t>
+  </si>
+  <si>
+    <t>AViewKey1stKYSWspZXNkhrUgFoZogymRCn3PatC7rxJTBXVRRUTJ</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpHAjrRkVwjfzF4JxGxftkNSvwV7Ts14WXkjF7N5793FP8</t>
+  </si>
+  <si>
+    <t>year demise retire aunt priority issue gain blast noise make alert unveil</t>
+  </si>
+  <si>
+    <t>aleo1v8wra5tc4jktqfnydq33tr2pvg7f6jlegtap056e0cs02xx9dqxs5u235v</t>
+  </si>
+  <si>
+    <t>AViewKey1oVdg9FgXr6Sx2bYjXvtkUP2ffpguQNbKw1xTcs4JhJeC</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpGj7EQkqDdJniLF92G4WroharmEGMEyqD2KEpYnGCRnmm</t>
+  </si>
+  <si>
+    <t>hobby two cake glance annual job liquid first hunt outside window social</t>
+  </si>
+  <si>
+    <t>aleo1nz87e9r4cdq5lf3cw4jpax3ma0p8la86j30g77dml8g4a3ntc5xsuw538u</t>
+  </si>
+  <si>
+    <t>AViewKey1rmK4KBY2Q1XEhSNhbKRRRhyW3oYfCwTf2e7d4zG4VGPy</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp8Kg9529fWT8F6o8ek3LnJBLN4VBnbkP15PQpYUhd6J2Y</t>
+  </si>
+  <si>
+    <t>language pair orange depend spray ocean negative into test judge wash solve</t>
+  </si>
+  <si>
+    <t>aleo18jqncw856hnwtr4fjrjsemvvhvcpnh0k43krrf8qywrcs86wlvzq782l6w</t>
+  </si>
+  <si>
+    <t>AViewKey1kPFbngd8HLyejowStFWSizTenhd65BMZPjdwW7u2WAjd</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp5sbtQ4m9gQ5kbr5vh6aiA7xLK93aFS4ca8s5XFtBQfEZ</t>
+  </si>
+  <si>
+    <t>angry predict account inch empower detail update brisk current crazy gap result</t>
+  </si>
+  <si>
+    <t>aleo1pmwd4jmfftkugncfvwks989uz9wshuzjfdgylgzeu9p53fz4pqxsxmlyst</t>
+  </si>
+  <si>
+    <t>AViewKey1rmxdK5d2811JtZJaqgoM6iXJNCzuK3Vytz1krSodZqVj</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpDikocjwyMpm8xP3CtS5SdnyFueJnYNEYLeJ7jTHBnfGY</t>
+  </si>
+  <si>
+    <t>jump destroy pass access ivory thank lounge cry pear awesome abandon winner</t>
+  </si>
+  <si>
+    <t>aleo134kuln3gvym06xyxm27fsyptlgq0nq9qsh6f3lvwrng3g3m9wsfqsqxyev</t>
+  </si>
+  <si>
+    <t>AViewKey1eF8zsvK2nVSc8HBwTbft5jXHcFoDzAMKsBc7qmotvVDZ</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp9F4igZU9covRWNbfjyvH6iDpWxrek6j9FXoeuKYMziAo</t>
+  </si>
+  <si>
+    <t>symbol frozen nut whisper emerge climb awesome token coast clog stomach once</t>
+  </si>
+  <si>
+    <t>aleo12zysyxn5ylepgxk52vuk48g99jas4sjlw7525jsz8q5g45ktkvrqrunktf</t>
+  </si>
+  <si>
+    <t>AViewKey1rb7WJTmeGzfNGQTauen9J4hwZTHW9qLVUYqsyJ8dtrQH</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpJVoxSbfwTseb7rCWzrRpEYZvDgAjv2zfTHze1SZBua77</t>
+  </si>
+  <si>
+    <t>canyon dove rather inside ball control cave sugar title vapor cause exchange</t>
+  </si>
+  <si>
+    <t>aleo1zkfmcltfsfmymu0lv28erzs9lgqtyu9pfvhs0pjmctj0nw25m5rqxuc8x0</t>
+  </si>
+  <si>
+    <t>AViewKey1nAFei1vv4o7YRFCKwYVbUvAvjaWYxfFajThhGgyqp9ZC</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpHKWgdztxM4rrBMrLLT7r5e93zfqsfgC8wt1A3sZbjmS5</t>
+  </si>
+  <si>
+    <t>egg danger unable ability gasp stem grain pepper tourist use custom dolphin</t>
+  </si>
+  <si>
+    <t>aleo1e0zadtxx6j0q5dkdp62c2zuasmx2ed5nzrtzhptlq3k62uyg3spqha8k6a</t>
+  </si>
+  <si>
+    <t>AViewKey1iepnJacf66zQLf6rjUthXtKTxoc8beRFMrKEQV4C9bbx</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpFAp2s6wkCwGUC6PwsjqjiUQjxL1QN3y9KCX2VAuXkNWg</t>
+  </si>
+  <si>
+    <t>earth wait voyage item sibling grow able used tongue head milk hospital</t>
+  </si>
+  <si>
+    <t>aleo1c9fx9s3suee83zs20zsukcrtsyfdefe0v0fcacr8t9qe0udp2u9s6x49wm</t>
+  </si>
+  <si>
+    <t>AViewKey1qtVyuzRg2vx1MvS3esTo9H4MtZgVGfUK1ipYMQS9eTCu</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp8ita6trncS842e6nDuYDURqSoJjCbiKvJMzS7uHy7g1a</t>
+  </si>
+  <si>
+    <t>clarify jungle obvious frequent chapter pill muffin upset kidney turtle heavy enjoy</t>
+  </si>
+  <si>
+    <t>aleo1ev2lkpma9wqxd62g92fxahz6rq5cd4dnqj233jql6z7hte2czgpsmrcket</t>
+  </si>
+  <si>
+    <t>AViewKey1jrKNu4akuiWri6MbV7NmxqJCQshW6Vqf8K7KVzkxvBHd</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpAnmfm7CMgjvW9RFLfZA5kSxdzzzktsPi8VwMKYz6WaEz</t>
+  </si>
+  <si>
+    <t>disease tilt figure diesel syrup leopard conduct test peasant grab tortoise frost</t>
+  </si>
+  <si>
+    <t>aleo18cvpg8y649jt0qkq55wvm0ceqj2zhym58zn93w72tmwztr759cpqw4h8f5</t>
+  </si>
+  <si>
+    <t>AViewKey1cdzEH8cyA4RL4Xp9igYqd3xL75z9QCvDutKKrp7ZXjLW</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp97eBwamnAsrSyETvGu3PxhJbnc4LTv4hP6voygNYvgij</t>
+  </si>
+  <si>
+    <t>opera candy arrow hobby damp furnace peasant split proud desk expose final</t>
+  </si>
+  <si>
+    <t>aleo1l8z2yvqg7tanselyvacjm2yw2p37axkxcu2s8duwcfzsatahrc9sezfzua</t>
+  </si>
+  <si>
+    <t>AViewKey1shSHeMr7fzzGMBqQt54ANRFBbehHpsidCzBDMug4FVBE</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp7PHspsPCuRnSqdm2MGanyQDWHQbXJrUC3uyZMUTc69cC</t>
+  </si>
+  <si>
+    <t>public gloom resemble abuse robust rain area accuse shove language patrol test</t>
+  </si>
+  <si>
+    <t>aleo1l99hw6zjumvnwwnp5gqqkcftx8m0m7n3quc88lxvps527l7cmvzqwgw4mp</t>
+  </si>
+  <si>
+    <t>AViewKey1kf8nLeFVrHCVAzBkiyV6Jh71kHJMNNjyce9wgsexJkfb</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp4ytEuV9VJRPQxsft2Tr8rZaekWuBFEyyaadGEjBfFqBy</t>
+  </si>
+  <si>
+    <t>trend session fringe economy force balcony behave square claw pepper panda unfold</t>
+  </si>
+  <si>
+    <t>aleo102909ast43vsa65y44esr34u77h3g66z7f4ht2rs5t925yjjrqrsvtq70x</t>
+  </si>
+  <si>
+    <t>AViewKey1hgZ1EYgdpSWToBFGB1Wno8jvSkzVdxH51Y12bhBTE85w</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp2HnceizXduAtt3N1mvBbdoN3ooDq8XtpiJq3ynHoWXhM</t>
+  </si>
+  <si>
+    <t>observe visit pigeon neither fantasy curtain bullet rib stand undo light ticket</t>
+  </si>
+  <si>
+    <t>aleo1q3qdv9nqpjg5trsysxrwgtfxy27qgaed3qhhap60e4y3axccjyrqx0rxdl</t>
+  </si>
+  <si>
+    <t>AViewKey1pAJnjijGnkuepuRWVrQ3w6E3QRB54yaWfq2ZvERbyzLH</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp6U6Di1amNeRxWiJzRMq66FjECK5jEJrwRBG1MNSTmDE1</t>
+  </si>
+  <si>
+    <t>pact abuse select polar perfect rose raven purity shift people royal smooth</t>
+  </si>
+  <si>
+    <t>aleo1xau025ytxe58qxuj2e9mdr3uunsunx87rfczywx4w4xr8t5ttgqqsu4q6u</t>
+  </si>
+  <si>
+    <t>AViewKey1nf533nNLbwr3AJL94P4LXi847bibrX38kQRgoGQos7wZ</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpHzY4ff9RpX5bshx2rp1wMmo18aGBYJ3pg4LtVtVGKcTx</t>
+  </si>
+  <si>
+    <t>explain sister gloom element ship brother intact gauge people strike maid glove</t>
+  </si>
+  <si>
+    <t>aleo1ycx6g3tcsfeyu8spne6qkuk4jvz0kgsd4hp34ff04k632u3pzygsnkyakn</t>
+  </si>
+  <si>
+    <t>AViewKey1ddyaHx5yvSvSWS4EiM8hJCUULBEoLH8hDLVRjNDstEs3</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp5DRcPyCK7QadWNVjCtrmFGaN8c57XGMXshK2U6gqJrZX</t>
+  </si>
+  <si>
+    <t>lady action gasp alert treat leg lobster bracket season stay primary antenna</t>
+  </si>
+  <si>
+    <t>aleo19ud7jf8fhqgyw2m0zwyzhpm8dyj82u5y5n096qmf3z4hd2g95qpsrnj37r</t>
+  </si>
+  <si>
+    <t>AViewKey1hJhk5CpMsTYTP9zgYZYLFqQDfDx6WyrL7ZkgLybRWZSK</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp8J4AbtRnteUcbtPeru7Z1TDdzQUyfitg4Z8ChnQbzeFA</t>
+  </si>
+  <si>
+    <t>foster argue purse try indicate dolphin bullet average cattle sugar common divide</t>
+  </si>
+  <si>
+    <t>aleo1jpacqww42gxea804g433x4euel90scksj3dnxyttdsszue0t6v9qr2gcf5</t>
+  </si>
+  <si>
+    <t>AViewKey1sm4xyC79enkwh2G9oM4d3eG2NGkCAqpZYuaQdJVNb8fB</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp6QmFpyB2LFWcvqfgX4ngUvr79ShP4Ja2Pf7Ru4Xy47Wc</t>
+  </si>
+  <si>
+    <t>yellow promote dinner cinnamon what sting tourist case february angry pen enforce</t>
+  </si>
+  <si>
+    <t>aleo1pqhd45kgp6z2s2trnvscsenj74lawlsz757ufd2gs8pze2npg5qqh2985n</t>
+  </si>
+  <si>
+    <t>AViewKey1sR2bcARK8XJD9ggZY5xxvPU4b3gHuLNfA5vD6PE5dw7G</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp3p6odeZJLRjRzsuBAVyJgxaFNThmfgfygV2qZH7TjbUm</t>
+  </si>
+  <si>
+    <t>salute ranch fruit universe volume twice favorite humble monster limb setup oxygen</t>
+  </si>
+  <si>
+    <t>aleo17zdyqd5geq7whlrkg4j2x4fqjyz88cc0n3qyfl6qa5dcexf5tg8qjddvn0</t>
+  </si>
+  <si>
+    <t>AViewKey1pxYXpPbZX1nCZdmPhZU1stkFragpiTpP4q1uvRcJqho9</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp8jhY95n3XcnUkPkJyagQk92eazJEPEAmtMHpEYKDGYA3</t>
+  </si>
+  <si>
+    <t>salad cage mail monkey tennis slice leisure tone pause because audit this</t>
+  </si>
+  <si>
+    <t>aleo1ycgqs5mdkh6kvw8cr72ugsjdm5urfxrvrxtqcra2c05scrq84yyqt3hr0z</t>
+  </si>
+  <si>
+    <t>AViewKey1gtM9KHpr8Y1oa9opNTrv45ZAKkUHSCazofErnzp97xjs</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpH9GhxZNoJMGVuLrWtGnLVvFcX2HwQZwuE2WFnmvTsCwh</t>
+  </si>
+  <si>
+    <t>tomorrow oil modify term film athlete champion better hub flower zone salad</t>
+  </si>
+  <si>
+    <t>aleo1jf76qdpygzqq56x7fmt75l98gaksrraam24cdkkvlry9s7tawgyq6fp664</t>
+  </si>
+  <si>
+    <t>AViewKey1tABgvas8dpvdrzzwgnvnB3RbnnijaTyehQFQJwyvwTCX</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp9caZp11qAZn9GJ4HqPByAuV9r3CWcHwBhZr8RJoQGV2Y</t>
+  </si>
+  <si>
+    <t>warm situate ranch salute ladder zero timber virus lazy trophy scissors pistol</t>
+  </si>
+  <si>
+    <t>aleo1jytt2l43wey34z2cj5grvzkk4jr8lkr5kkkl9fxvd96ctes3u5zq565dxg</t>
+  </si>
+  <si>
+    <t>AViewKey1f3sxMneWEEsU5u9wvauGEqJBqUM32xX6tgoP61YpnaRQ</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp2ondHxfc634bLm3J6obWC1B45tXAcVvSnJf1Gq4nfvVP</t>
+  </si>
+  <si>
+    <t>grocery forum matter embark unknown person welcome grape mix absurd shine medal</t>
+  </si>
+  <si>
+    <t>aleo1lzxkr76skzqgs08efeuecpgy880a559d437a52cadftjfgrljqpsulf6uq</t>
+  </si>
+  <si>
+    <t>AViewKey1stkgJ3kyb7fBLgX81NHDH66Zanw7vAusPS4pto7skfA7</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpFARnbi3kfS1y3TL6MmEXG7qVa5JZTzBxRn1wjGCAihNC</t>
+  </si>
+  <si>
+    <t>absent knee anger lens erode lend lazy input predict hundred clarify decide</t>
+  </si>
+  <si>
+    <t>aleo1l0sms2r6p0rlqm0h8jlvttj4ks87jsqzlssuqzy45s6esf3luszsle0zd6</t>
+  </si>
+  <si>
+    <t>AViewKey1tbNPZuNbw8PRBmZX1RiyAbzPex1D2pxhj3nUAvegNF7M</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp3nbcCX3Nt3CZz68si5aPrFVLGtacaHnu5vJCtgLqvtif</t>
+  </si>
+  <si>
+    <t>among crash taxi chase blush lecture silent absorb canyon alarm essence water</t>
+  </si>
+  <si>
+    <t>aleo1ldwjxczusfz8zqtj3e97zym6rq8rzalmkx74h49n9nkfmlfrs5zsj0gzka</t>
+  </si>
+  <si>
+    <t>AViewKey1iiPQWaucCSRsBUae9VnJbTz9VdQcB6srdmWAG1zs2Q71</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpFYfYpFDkVys6DV9iwVkrGcRqmKpVm5gpzS73PdmypdtM</t>
+  </si>
+  <si>
+    <t>siren story warfare cool grain fan typical foam guitar yellow nose genre</t>
+  </si>
+  <si>
+    <t>aleo13tcjnxflwqgw9x90mavqy7lw73ptfq7xlq70as3wrkxa4mrhpyfqclsasc</t>
+  </si>
+  <si>
+    <t>AViewKey1q7cmoUZkosMyJdsJwPffZFcw9wrcfUSunhsNq95VcUa3</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpB16tDFXh3SVHxEeMo41BqqXXfDYbACyZjkThtxqBAJwW</t>
+  </si>
+  <si>
+    <t>sustain butter village public bean omit winner tobacco service law ladder have</t>
+  </si>
+  <si>
+    <t>aleo1gqh6yp9cz7c5nla0ulfxn3t4qqp9tjze83a9u3cwcn7vvlq74q8seqfzzg</t>
+  </si>
+  <si>
+    <t>AViewKey1qfu8PrHFzr6p6b8GJBhMHKtT9mkgyuPGFkJ2H9anwVhc</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpGG7Tvk5WU9f2aoJv5ZyVNqaEEuaGbMgdvggy3f2caac4</t>
+  </si>
+  <si>
+    <t>erupt produce afford hair call soul labor hammer panic puzzle run prize</t>
+  </si>
+  <si>
+    <t>aleo17l65wc43y3naakucs7hyq6pcfsps22mf3f0xhsrtmwey7k9cmvxq6t33sp</t>
+  </si>
+  <si>
+    <t>AViewKey1mHawfszJU8sKLz2AAUUvYf365dPS7AeZgZYY9eV7BBgK</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp7xoyq2g9RU9eVQpUnrwGh4SU4vYs3kmvkwyXd684o4f3</t>
+  </si>
+  <si>
+    <t>bright police multiply bounce follow maze village multiply mad smooth author hire</t>
+  </si>
+  <si>
+    <t>aleo1qg3fqr6l8lrf57zk4c48vwdr67qzktfu7g5aksz9npv2t55cnyyq387al7</t>
+  </si>
+  <si>
+    <t>AViewKey1uRdn6c3cGZMrxr6PPTNCws8Lu99RwQYozMZZZjufAXm9</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp71kp2MEuXSd871Rb4cihqYt9f76GW59f8PoaTzsqUn15</t>
+  </si>
+  <si>
+    <t>coach tragic heavy health enact water crane acid spoil coffee salon mandate</t>
+  </si>
+  <si>
+    <t>aleo1ukh4uvtgj4uff6xfclpmjjl4uah48y7flrputzg7frjsel5tp5qqh7exhm</t>
+  </si>
+  <si>
+    <t>AViewKey1s4Hkv9y2f2AYCMmWqayyyxeK8MwN4q1qpNCqxZVHqBvS</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpHXtJobAEB7nGVCHVd7UsyDqyXY1gXU2GkPeocMbCoXhd</t>
+  </si>
+  <si>
+    <t>march lake party month indicate tiger soon limb order liquid chaos exotic</t>
+  </si>
+  <si>
+    <t>aleo16spf563nf5z7f4934fxdz4nxpfgtuqktulhtdm364ke74x0tlgystnvz8v</t>
+  </si>
+  <si>
+    <t>AViewKey1e7ubhRdbK5JqJkJwhLF4rzTcbtoqgyE8hGea11BvE73W</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp6AD4yhvWq7w8sYJcKJRdaJ1hdFd6xQMS9y8xqiEc4uCz</t>
+  </si>
+  <si>
+    <t>ill check word dragon under glove rather turtle know finger write situate</t>
+  </si>
+  <si>
+    <t>aleo1nkyzpcp75u4cmcrzkh5w6x7ehkv6jatu8l6p0c9x895cry8txyfqfvzdrw</t>
+  </si>
+  <si>
+    <t>AViewKey1oETjm6NupWeYBo9JgBkTe2zT9U1bKDfbA2Lvx5r2kaR7</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp8pDn9VGxyfGvZELCnh4KAR6DRMow4Atdr15y3rFt2ET1</t>
+  </si>
+  <si>
+    <t>online depart avocado frog galaxy clay morning auction car guard home cute</t>
+  </si>
+  <si>
+    <t>aleo14zlldqmah200t970hf4yghtmyzrahs85gmlld9wjx2w2z39yyggs0rucwj</t>
+  </si>
+  <si>
+    <t>AViewKey1f1dsCNY4qNSuihZKK5HmYQnQwD38pLKK1Z4UPpV3td3e</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpHuCx3oVh9KVtUpUSE7gyt87x5gjZrYhBqAG1kwXLZTsT</t>
+  </si>
+  <si>
+    <t>topple gap combine pause shoe wide material almost ugly bar wide boring</t>
+  </si>
+  <si>
+    <t>aleo1xdvy0wc3zcdzzzzet9acmgkelklfadraqcwmu423sgdtm9as3u8qs99mts</t>
+  </si>
+  <si>
+    <t>AViewKey1hZP8Quw5XLbXQuRWQ3Vvym7orUyztKxQ7Vp9tgBNDciW</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpD2bSDdPr2zFKRRQ7f7JXTkukG24utRM3tab4KXuEhGkU</t>
+  </si>
+  <si>
+    <t>steel limit busy what wagon asthma sibling grape calm sausage sauce visual</t>
+  </si>
+  <si>
+    <t>aleo1zk7ga8zt46snq7lq8weykryal7w4apv4jarcfzlzx4tvqn57pcxsumzg0h</t>
+  </si>
+  <si>
+    <t>AViewKey1have5DPP1x8i7b3UxeXiRcvc8no5dnb7u6dCvWXjfivj</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpAQZwCMtTpfxxnHwuGiJMdBkSG3x9YuyrBahQm8mhwXae</t>
+  </si>
+  <si>
+    <t>public comic mass pumpkin patch face fog use fortune brave perfect about</t>
+  </si>
+  <si>
+    <t>aleo1f7l8nkvg5ja4gpwx4vjunj50ahdxk9jxtqt5fqftuwmmx8fxaqrql0np54</t>
+  </si>
+  <si>
+    <t>AViewKey1htRSHQ1ECQoMVQhiWb9DrQ7VcXTLnWRTYHNi9p1hZrkY</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkp92KBtF3v9FmC2p7ZQHjdXSqKEt1ZDYGzcTTcsPtF7VDq</t>
+  </si>
+  <si>
+    <t>mango cloth fold believe carpet subject skin dance liquid another subject object</t>
+  </si>
+  <si>
+    <t>aleo1gs3nra86q7y8rh2nxkx6qr34n3z5nya0err49n4r4u6m5xcc5cxqu9yv5m</t>
+  </si>
+  <si>
+    <t>AViewKey1iJoacyRmVQjZg8rq42N5RBJ5iAhPDfCMjgVwuP8nyAZE</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpCWfdE9CdnFUjcfsBhs82xEQWUGTJCqBPyZxr6BULrF2U</t>
+  </si>
+  <si>
+    <t>retreat expand keep circle view staff spell game orient next tooth discover</t>
+  </si>
+  <si>
+    <t>aleo12ldkezz4g03njfah783w6edvayk3khvzljtyh5ez77rerw4rnqqs2pkh3q</t>
+  </si>
+  <si>
+    <t>AViewKey1dGnaS7Th77hnr2nN3Pr995Yty7DbVbeHNnKgJShZd8jd</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpAxLfBdXiTDUAwVhRLfgk8B8RAD1MMkmX3npPaH6imHCy</t>
+  </si>
+  <si>
+    <t>genius move lamp speak drift panda furnace dawn season enrich program hidden</t>
+  </si>
+  <si>
+    <t>aleo1z45cww2ggqzpvqcxyl83kcqymjn3cn9jcazqrknr7ulxejw30vxsy0t4uu</t>
+  </si>
+  <si>
+    <t>AViewKey1pqHMBGcHxThJpAZtRFZ2oPJUgwNg8WZvyRhf4sALSKpU</t>
+  </si>
+  <si>
+    <t>APrivateKey1zkpGL3PjVHWvK986huV1mDnJS9P1oQsgfa3Wyp3ALjiwitz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
@@ -373,10 +962,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="66.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="59.7109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="64.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -393,6 +982,692 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
